--- a/results/mp/logistic/corona/confidence/126/stop-words-topk-desired-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-topk-desired-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="96">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,88 +40,106 @@
     <t>name</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>panic</t>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>sick</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>sc</t>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>avoid</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>saudi</t>
-  </si>
-  <si>
-    <t>avoid</t>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>facing</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>empty</t>
+    <t>shortages</t>
   </si>
   <si>
     <t>cut</t>
@@ -139,6 +157,9 @@
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
@@ -148,55 +169,67 @@
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>like</t>
@@ -208,58 +241,67 @@
     <t>help</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>save</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
+    <t>helping</t>
+  </si>
+  <si>
     <t>give</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>corona</t>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
 </sst>
 </file>
@@ -617,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,10 +667,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -686,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -704,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -736,13 +778,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9459459459459459</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -754,19 +796,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -778,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -786,13 +828,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9411764705882353</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -807,16 +849,16 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -836,13 +878,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8947368421052632</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -857,16 +899,16 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K6">
-        <v>0.9148936170212766</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L6">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -878,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -886,13 +928,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.88</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -904,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="K7">
-        <v>0.9090909090909091</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -928,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -936,13 +978,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.863013698630137</v>
+        <v>0.8732876712328768</v>
       </c>
       <c r="C8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -954,19 +996,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K8">
-        <v>0.9033942558746736</v>
+        <v>0.9112271540469974</v>
       </c>
       <c r="L8">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M8">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -978,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -986,13 +1028,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8611111111111112</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1004,19 +1046,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K9">
-        <v>0.9017857142857143</v>
+        <v>0.9084507042253521</v>
       </c>
       <c r="L9">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="M9">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1028,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1036,13 +1078,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8275862068965517</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1057,16 +1099,16 @@
         <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K10">
-        <v>0.9014084507042254</v>
+        <v>0.8984375</v>
       </c>
       <c r="L10">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="M10">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1078,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1086,13 +1128,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7948717948717948</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1104,19 +1146,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K11">
-        <v>0.8837209302325582</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L11">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="M11">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1128,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1136,13 +1178,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7435897435897436</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1154,19 +1196,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K12">
-        <v>0.875</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="L12">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="M12">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1178,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1186,13 +1228,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.725</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1204,19 +1246,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K13">
-        <v>0.86875</v>
+        <v>0.8793103448275862</v>
       </c>
       <c r="L13">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="M13">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1228,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1236,13 +1278,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7131782945736435</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="C14">
-        <v>368</v>
+        <v>40</v>
       </c>
       <c r="D14">
-        <v>368</v>
+        <v>40</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1254,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K14">
-        <v>0.8620689655172413</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L14">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="M14">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1278,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1286,13 +1328,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.711864406779661</v>
+        <v>0.775</v>
       </c>
       <c r="C15">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D15">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1304,19 +1346,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K15">
-        <v>0.8611111111111112</v>
+        <v>0.86875</v>
       </c>
       <c r="L15">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="M15">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1328,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1336,13 +1378,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7096774193548387</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1354,19 +1396,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K16">
-        <v>0.8536585365853658</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L16">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1378,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1386,13 +1428,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7058823529411765</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C17">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1404,19 +1446,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K17">
-        <v>0.8490566037735849</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L17">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="M17">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1428,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1436,13 +1478,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7037037037037037</v>
+        <v>0.7267441860465116</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>375</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>375</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1454,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K18">
-        <v>0.8333333333333334</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1478,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1486,13 +1528,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1504,19 +1546,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="K19">
-        <v>0.8095238095238095</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L19">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="M19">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1528,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1536,13 +1578,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6984126984126984</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C20">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="D20">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1554,19 +1596,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K20">
-        <v>0.7916666666666666</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1578,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1586,13 +1628,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6308724832214765</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C21">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="D21">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1604,19 +1646,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="K21">
-        <v>0.7647058823529411</v>
+        <v>0.8125</v>
       </c>
       <c r="L21">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="M21">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1628,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>80</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1636,7 +1678,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6129032258064516</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C22">
         <v>19</v>
@@ -1654,31 +1696,31 @@
         <v>0</v>
       </c>
       <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="L22">
+        <v>51</v>
+      </c>
+      <c r="M22">
+        <v>51</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>12</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K22">
-        <v>0.7553191489361702</v>
-      </c>
-      <c r="L22">
-        <v>71</v>
-      </c>
-      <c r="M22">
-        <v>71</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1686,13 +1728,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5818181818181818</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C23">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D23">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1704,19 +1746,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K23">
-        <v>0.7322033898305085</v>
+        <v>0.775</v>
       </c>
       <c r="L23">
-        <v>216</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>216</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1728,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>79</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1736,13 +1778,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5733333333333334</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C24">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D24">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1754,19 +1796,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K24">
-        <v>0.7307692307692307</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1778,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1786,13 +1828,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5714285714285714</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C25">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D25">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1804,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K25">
-        <v>0.7254901960784313</v>
+        <v>0.7705882352941177</v>
       </c>
       <c r="L25">
-        <v>37</v>
+        <v>262</v>
       </c>
       <c r="M25">
-        <v>37</v>
+        <v>262</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1828,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1836,7 +1878,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5675675675675675</v>
+        <v>0.65625</v>
       </c>
       <c r="C26">
         <v>21</v>
@@ -1854,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K26">
-        <v>0.7230769230769231</v>
+        <v>0.7553191489361702</v>
       </c>
       <c r="L26">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="M26">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1878,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1886,13 +1928,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.55</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1904,19 +1946,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K27">
-        <v>0.7112970711297071</v>
+        <v>0.7525423728813559</v>
       </c>
       <c r="L27">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="M27">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1928,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1936,13 +1978,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5490196078431373</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C28">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D28">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1954,19 +1996,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K28">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="L28">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1978,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1986,13 +2028,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5277777777777778</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C29">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D29">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2004,19 +2046,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="K29">
-        <v>0.675</v>
+        <v>0.75</v>
       </c>
       <c r="L29">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M29">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2028,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2036,13 +2078,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4444444444444444</v>
+        <v>0.6174496644295302</v>
       </c>
       <c r="C30">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="D30">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2054,19 +2096,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K30">
-        <v>0.6629213483146067</v>
+        <v>0.74</v>
       </c>
       <c r="L30">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="M30">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2078,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2086,13 +2128,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C31">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D31">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2104,19 +2146,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K31">
-        <v>0.6571428571428571</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L31">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="M31">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2128,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2136,13 +2178,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3896103896103896</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="C32">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D32">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2154,19 +2196,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K32">
-        <v>0.6491228070175439</v>
+        <v>0.7112970711297071</v>
       </c>
       <c r="L32">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="M32">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2178,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2186,13 +2228,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3875</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="C33">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D33">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2204,13 +2246,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="K33">
-        <v>0.6428571428571429</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L33">
         <v>45</v>
@@ -2228,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2236,13 +2278,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.376984126984127</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="C34">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="D34">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2254,19 +2296,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K34">
-        <v>0.547945205479452</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L34">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2278,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2286,13 +2328,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2815013404825737</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="C35">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="D35">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2304,19 +2346,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>268</v>
+        <v>34</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="K35">
-        <v>0.5256410256410257</v>
+        <v>0.6714285714285714</v>
       </c>
       <c r="L35">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="M35">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2328,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2336,179 +2378,529 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.007731958762886598</v>
+        <v>0.5121951219512195</v>
       </c>
       <c r="C36">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D36">
+        <v>21</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>20</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K36">
+        <v>0.651685393258427</v>
+      </c>
+      <c r="L36">
+        <v>58</v>
+      </c>
+      <c r="M36">
+        <v>58</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.4909090909090909</v>
+      </c>
+      <c r="C37">
         <v>27</v>
       </c>
-      <c r="E36">
-        <v>0.11</v>
-      </c>
-      <c r="F36">
-        <v>0.89</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>3080</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K36">
-        <v>0.5245901639344263</v>
-      </c>
-      <c r="L36">
+      <c r="D37">
+        <v>27</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>28</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K37">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="L37">
+        <v>28</v>
+      </c>
+      <c r="M37">
+        <v>28</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="C38">
+        <v>35</v>
+      </c>
+      <c r="D38">
+        <v>35</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>42</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K38">
+        <v>0.5952380952380952</v>
+      </c>
+      <c r="L38">
+        <v>25</v>
+      </c>
+      <c r="M38">
+        <v>25</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.4</v>
+      </c>
+      <c r="C39">
         <v>32</v>
       </c>
-      <c r="M36">
+      <c r="D39">
         <v>32</v>
       </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>48</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K39">
+        <v>0.5614035087719298</v>
+      </c>
+      <c r="L39">
+        <v>32</v>
+      </c>
+      <c r="M39">
+        <v>32</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.3968253968253968</v>
+      </c>
+      <c r="C40">
+        <v>100</v>
+      </c>
+      <c r="D40">
+        <v>100</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>152</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K40">
+        <v>0.5342465753424658</v>
+      </c>
+      <c r="L40">
+        <v>39</v>
+      </c>
+      <c r="M40">
+        <v>39</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.289544235924933</v>
+      </c>
+      <c r="C41">
+        <v>108</v>
+      </c>
+      <c r="D41">
+        <v>108</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>265</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K41">
+        <v>0.515625</v>
+      </c>
+      <c r="L41">
+        <v>33</v>
+      </c>
+      <c r="M41">
+        <v>33</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.2066666666666667</v>
+      </c>
+      <c r="C42">
+        <v>62</v>
+      </c>
+      <c r="D42">
+        <v>62</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>238</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K42">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="L42">
+        <v>40</v>
+      </c>
+      <c r="M42">
+        <v>40</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.01289906481780071</v>
+      </c>
+      <c r="C43">
+        <v>40</v>
+      </c>
+      <c r="D43">
+        <v>46</v>
+      </c>
+      <c r="E43">
+        <v>0.13</v>
+      </c>
+      <c r="F43">
+        <v>0.87</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>3061</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K43">
+        <v>0.4406779661016949</v>
+      </c>
+      <c r="L43">
+        <v>26</v>
+      </c>
+      <c r="M43">
+        <v>26</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="J44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K44">
+        <v>0.4262295081967213</v>
+      </c>
+      <c r="L44">
+        <v>26</v>
+      </c>
+      <c r="M44">
+        <v>26</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="J45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K45">
+        <v>0.2661290322580645</v>
+      </c>
+      <c r="L45">
+        <v>33</v>
+      </c>
+      <c r="M45">
+        <v>33</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="J46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K46">
+        <v>0.2568807339449541</v>
+      </c>
+      <c r="L46">
+        <v>28</v>
+      </c>
+      <c r="M46">
+        <v>28</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K47">
+        <v>0.1521739130434783</v>
+      </c>
+      <c r="L47">
+        <v>28</v>
+      </c>
+      <c r="M47">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K37">
-        <v>0.4761904761904762</v>
-      </c>
-      <c r="L37">
-        <v>20</v>
-      </c>
-      <c r="M37">
-        <v>20</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K38">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="L38">
-        <v>20</v>
-      </c>
-      <c r="M38">
-        <v>20</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K39">
-        <v>0.4310344827586207</v>
-      </c>
-      <c r="L39">
-        <v>25</v>
-      </c>
-      <c r="M39">
-        <v>26</v>
-      </c>
-      <c r="N39">
-        <v>0.96</v>
-      </c>
-      <c r="O39">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q39">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K40">
-        <v>0.34375</v>
-      </c>
-      <c r="L40">
-        <v>22</v>
-      </c>
-      <c r="M40">
-        <v>22</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K41">
-        <v>0.005956112852664576</v>
-      </c>
-      <c r="L41">
-        <v>19</v>
-      </c>
-      <c r="M41">
-        <v>30</v>
-      </c>
-      <c r="N41">
-        <v>0.63</v>
-      </c>
-      <c r="O41">
-        <v>0.37</v>
-      </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>3171</v>
+      <c r="N47">
+        <v>0.97</v>
+      </c>
+      <c r="O47">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K48">
+        <v>0.1220930232558139</v>
+      </c>
+      <c r="L48">
+        <v>21</v>
+      </c>
+      <c r="M48">
+        <v>21</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
